--- a/similarities/split_global/harmonic_similarity_timestamps_72.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,46 +484,56 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:53.500000', '0:01:01.320000'), ('0:00:58.120000', '0:01:02.720000'), ('0:01:08.640000', '0:01:17.380000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:31.260000'), ('0:01:17.300000', '0:01:20.480000'), ('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=53.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=58.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=19.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=77.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -532,654 +542,692 @@
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj', 'D:7/C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:min7', 'C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:49.152131', '0:02:57.917664')]</t>
+          <t>('0:01:04.660000', '0:01:14.220000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:57.700000', '0:01:05.360000')]</t>
+          <t>('0:00:22.680000', '0:00:27')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-208#t=169.152131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=22.68</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:02.570000', '0:02:04.490000')]</t>
+          <t>('0:02:22.140000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:06.180000', '0:00:13.740000')]</t>
+          <t>('0:00:28.450816', '0:00:42.011269')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=122.57']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=6.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+          <t>('0:00:30.240000', '0:00:38.500000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=30.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>jaah_63</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
+          <t>['F:min', 'G:dim7', 'F:min', 'G:dim7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:02:07.006105')]</t>
+          <t>('0:00:00.840000', '0:00:13.370000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+          <t>('0:00:02.360000', '0:00:11.900000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=0.84</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=2.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['F:min', 'Ab', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['B:min', 'D/5', 'E/3', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:05.737000', '0:00:10.286000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
+          <t>('0:00:11.569428', '0:00:17.444076')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=5.737</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.569428</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_77</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:03:31.700000', '0:03:34.600000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:21.840737', '0:00:25.474660')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=211.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-77#t=21.840737']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:01:34.800000', '0:01:46.960000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=94.8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:36.732085', '0:00:41.248366')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:03.700000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D'], ['A', 'D', 'A']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb'], ['F', 'Bb', 'F']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:04.871315', '0:01:12.777709'), ('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:01:58.180000', '0:02:03.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:29.470000', '0:00:32.220000'), ('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=29.47', 'https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
+          <t>('0:01:03.220000', '0:01:10.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:54.520000', '0:01:55.980000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=63.22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=114.52']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'G:min', 'D']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'D:min/F', 'A:maj/E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:04.737522', '0:02:11.471309')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:12.980000', '0:01:14.880000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=124.737522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=72.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['D:7', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:00:54.260000', '0:01:01.020000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:25.110000', '0:00:28.410000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=25.11</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:00:16.440000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+          <t>('0:01:06.100000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=16.44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min', 'D']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:35.904784', '0:01:44.577437')]</t>
+          <t>('0:01:39.600000', '0:01:51.620000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:05.360000', '0:00:10.320000')]</t>
+          <t>('0:00:09.720000', '0:00:13')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=95.904784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=5.36']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=9.72</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
